--- a/image/molecularsequence.xlsx
+++ b/image/molecularsequence.xlsx
@@ -1318,43 +1318,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.10546875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.3984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="146.58984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="145.25390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="76.53515625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="48.51171875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="77.02734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.58203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="50.30859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/molecularsequence.xlsx
+++ b/image/molecularsequence.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="377">
   <si>
     <t>Path</t>
   </si>
@@ -159,7 +159,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -462,10 +462,6 @@
   </si>
   <si>
     <t>MolecularSequence.referenceSeq.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1318,43 +1314,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.3984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="145.25390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="146.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="77.02734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="59.58203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="50.30859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="76.53515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="48.51171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3367,13 +3363,13 @@
         <v>38</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3424,30 +3420,30 @@
         <v>38</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3476,7 +3472,7 @@
         <v>92</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M21" t="s" s="2">
         <v>94</v>
@@ -3529,7 +3525,7 @@
         <v>38</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3547,16 +3543,16 @@
         <v>38</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -3578,10 +3574,10 @@
         <v>91</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>94</v>
@@ -3636,7 +3632,7 @@
         <v>38</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3659,7 +3655,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3682,13 +3678,13 @@
         <v>47</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3715,14 +3711,14 @@
         <v>38</v>
       </c>
       <c r="W23" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="X23" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X23" t="s" s="2">
+      <c r="Y23" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="Z23" t="s" s="2">
         <v>38</v>
       </c>
@@ -3739,7 +3735,7 @@
         <v>38</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3762,7 +3758,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3785,13 +3781,13 @@
         <v>47</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3842,7 +3838,7 @@
         <v>38</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3865,7 +3861,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3891,10 +3887,10 @@
         <v>65</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>168</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3924,11 +3920,11 @@
         <v>110</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>170</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>38</v>
       </c>
@@ -3945,7 +3941,7 @@
         <v>38</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3968,7 +3964,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3991,13 +3987,13 @@
         <v>47</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>173</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4024,14 +4020,14 @@
         <v>38</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>38</v>
       </c>
@@ -4048,7 +4044,7 @@
         <v>38</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -4071,7 +4067,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4094,13 +4090,13 @@
         <v>47</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4151,7 +4147,7 @@
         <v>38</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
@@ -4174,7 +4170,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4197,13 +4193,13 @@
         <v>47</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4254,7 +4250,7 @@
         <v>38</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -4277,7 +4273,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4303,10 +4299,10 @@
         <v>65</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4336,11 +4332,11 @@
         <v>110</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>38</v>
       </c>
@@ -4357,7 +4353,7 @@
         <v>38</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>39</v>
@@ -4380,7 +4376,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4406,10 +4402,10 @@
         <v>114</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4460,7 +4456,7 @@
         <v>38</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4483,7 +4479,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4509,10 +4505,10 @@
         <v>114</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4563,7 +4559,7 @@
         <v>38</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>39</v>
@@ -4586,7 +4582,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4612,10 +4608,10 @@
         <v>138</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4666,7 +4662,7 @@
         <v>38</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>39</v>
@@ -4678,7 +4674,7 @@
         <v>38</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>38</v>
@@ -4689,7 +4685,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4712,13 +4708,13 @@
         <v>38</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4769,30 +4765,30 @@
         <v>38</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4821,7 +4817,7 @@
         <v>92</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>94</v>
@@ -4874,7 +4870,7 @@
         <v>38</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>39</v>
@@ -4892,16 +4888,16 @@
         <v>38</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -4923,10 +4919,10 @@
         <v>91</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>94</v>
@@ -4981,7 +4977,7 @@
         <v>38</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>39</v>
@@ -5004,7 +5000,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5030,10 +5026,10 @@
         <v>114</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5084,7 +5080,7 @@
         <v>38</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>39</v>
@@ -5107,7 +5103,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5133,10 +5129,10 @@
         <v>114</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5187,7 +5183,7 @@
         <v>38</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>39</v>
@@ -5210,7 +5206,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5233,13 +5229,13 @@
         <v>47</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5290,7 +5286,7 @@
         <v>38</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>39</v>
@@ -5313,7 +5309,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5336,13 +5332,13 @@
         <v>47</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5393,7 +5389,7 @@
         <v>38</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>39</v>
@@ -5416,7 +5412,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5439,13 +5435,13 @@
         <v>47</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5496,7 +5492,7 @@
         <v>38</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>39</v>
@@ -5519,7 +5515,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5542,13 +5538,13 @@
         <v>47</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>219</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5599,7 +5595,7 @@
         <v>38</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>39</v>
@@ -5622,7 +5618,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5645,13 +5641,13 @@
         <v>47</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5702,7 +5698,7 @@
         <v>38</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>39</v>
@@ -5725,7 +5721,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5751,10 +5747,10 @@
         <v>138</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5805,7 +5801,7 @@
         <v>38</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>39</v>
@@ -5817,7 +5813,7 @@
         <v>38</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>38</v>
@@ -5828,7 +5824,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5851,13 +5847,13 @@
         <v>38</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5908,30 +5904,30 @@
         <v>38</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5960,7 +5956,7 @@
         <v>92</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M45" t="s" s="2">
         <v>94</v>
@@ -6013,7 +6009,7 @@
         <v>38</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>39</v>
@@ -6031,16 +6027,16 @@
         <v>38</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
@@ -6062,10 +6058,10 @@
         <v>91</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>94</v>
@@ -6120,7 +6116,7 @@
         <v>38</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>39</v>
@@ -6143,7 +6139,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6169,10 +6165,10 @@
         <v>65</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6202,11 +6198,11 @@
         <v>110</v>
       </c>
       <c r="X47" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="Y47" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="Y47" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="Z47" t="s" s="2">
         <v>38</v>
       </c>
@@ -6223,7 +6219,7 @@
         <v>38</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>46</v>
@@ -6246,7 +6242,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6269,13 +6265,13 @@
         <v>47</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6302,14 +6298,14 @@
         <v>38</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X48" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="Y48" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Y48" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="Z48" t="s" s="2">
         <v>38</v>
       </c>
@@ -6326,7 +6322,7 @@
         <v>38</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>39</v>
@@ -6349,7 +6345,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6375,10 +6371,10 @@
         <v>114</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6429,7 +6425,7 @@
         <v>38</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>39</v>
@@ -6452,7 +6448,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6478,10 +6474,10 @@
         <v>114</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6532,7 +6528,7 @@
         <v>38</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>39</v>
@@ -6555,7 +6551,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6581,10 +6577,10 @@
         <v>134</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6635,7 +6631,7 @@
         <v>38</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>39</v>
@@ -6658,7 +6654,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6681,13 +6677,13 @@
         <v>47</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6714,14 +6710,14 @@
         <v>38</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>252</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>38</v>
       </c>
@@ -6738,7 +6734,7 @@
         <v>38</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>39</v>
@@ -6761,7 +6757,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6784,13 +6780,13 @@
         <v>47</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6841,7 +6837,7 @@
         <v>38</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>39</v>
@@ -6864,7 +6860,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6887,13 +6883,13 @@
         <v>47</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6944,7 +6940,7 @@
         <v>38</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>39</v>
@@ -6967,7 +6963,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6990,13 +6986,13 @@
         <v>47</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7047,7 +7043,7 @@
         <v>38</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>39</v>
@@ -7070,7 +7066,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7093,13 +7089,13 @@
         <v>47</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7150,7 +7146,7 @@
         <v>38</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>39</v>
@@ -7173,7 +7169,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7196,13 +7192,13 @@
         <v>47</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7253,7 +7249,7 @@
         <v>38</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>39</v>
@@ -7276,7 +7272,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7299,13 +7295,13 @@
         <v>47</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>270</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7356,7 +7352,7 @@
         <v>38</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>39</v>
@@ -7379,7 +7375,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7402,13 +7398,13 @@
         <v>47</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7459,7 +7455,7 @@
         <v>38</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>39</v>
@@ -7482,7 +7478,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7505,13 +7501,13 @@
         <v>47</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7562,7 +7558,7 @@
         <v>38</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>39</v>
@@ -7585,7 +7581,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -7611,10 +7607,10 @@
         <v>138</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L61" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7665,7 +7661,7 @@
         <v>38</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>39</v>
@@ -7677,7 +7673,7 @@
         <v>38</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>38</v>
@@ -7688,7 +7684,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7711,13 +7707,13 @@
         <v>38</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7768,30 +7764,30 @@
         <v>38</v>
       </c>
       <c r="AE62" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK62" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF62" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG62" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ62" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK62" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7820,7 +7816,7 @@
         <v>92</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>94</v>
@@ -7873,7 +7869,7 @@
         <v>38</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>39</v>
@@ -7891,16 +7887,16 @@
         <v>38</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -7922,10 +7918,10 @@
         <v>91</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>94</v>
@@ -7980,7 +7976,7 @@
         <v>38</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>39</v>
@@ -8003,7 +7999,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8029,10 +8025,10 @@
         <v>114</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8083,7 +8079,7 @@
         <v>38</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>39</v>
@@ -8106,7 +8102,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8132,10 +8128,10 @@
         <v>114</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>289</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8186,7 +8182,7 @@
         <v>38</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>39</v>
@@ -8209,7 +8205,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8235,10 +8231,10 @@
         <v>114</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8289,7 +8285,7 @@
         <v>38</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>39</v>
@@ -8312,7 +8308,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8338,10 +8334,10 @@
         <v>114</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>295</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8392,7 +8388,7 @@
         <v>38</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>39</v>
@@ -8415,7 +8411,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8438,13 +8434,13 @@
         <v>47</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>298</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8495,7 +8491,7 @@
         <v>38</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>39</v>
@@ -8518,7 +8514,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -8541,13 +8537,13 @@
         <v>47</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -8598,7 +8594,7 @@
         <v>38</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>39</v>
@@ -8621,7 +8617,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -8644,13 +8640,13 @@
         <v>47</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8701,7 +8697,7 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
@@ -8724,7 +8720,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8750,10 +8746,10 @@
         <v>114</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8804,7 +8800,7 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>39</v>
@@ -8827,7 +8823,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8853,10 +8849,10 @@
         <v>138</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8907,7 +8903,7 @@
         <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>39</v>
@@ -8919,7 +8915,7 @@
         <v>38</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>38</v>
@@ -8930,7 +8926,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8953,13 +8949,13 @@
         <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9010,30 +9006,30 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK74" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF74" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG74" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK74" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9062,7 +9058,7 @@
         <v>92</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>94</v>
@@ -9115,7 +9111,7 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>39</v>
@@ -9133,16 +9129,16 @@
         <v>38</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -9164,10 +9160,10 @@
         <v>91</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L76" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M76" t="s" s="2">
         <v>94</v>
@@ -9222,7 +9218,7 @@
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>39</v>
@@ -9245,7 +9241,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9271,10 +9267,10 @@
         <v>65</v>
       </c>
       <c r="K77" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L77" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9304,11 +9300,11 @@
         <v>110</v>
       </c>
       <c r="X77" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y77" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y77" t="s" s="2">
-        <v>318</v>
-      </c>
       <c r="Z77" t="s" s="2">
         <v>38</v>
       </c>
@@ -9325,7 +9321,7 @@
         <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>46</v>
@@ -9348,7 +9344,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9374,10 +9370,10 @@
         <v>59</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -9428,7 +9424,7 @@
         <v>38</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>39</v>
@@ -9451,7 +9447,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9474,13 +9470,13 @@
         <v>47</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -9531,7 +9527,7 @@
         <v>38</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>39</v>
@@ -9554,7 +9550,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -9577,13 +9573,13 @@
         <v>47</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -9634,7 +9630,7 @@
         <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>39</v>
@@ -9657,7 +9653,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9680,13 +9676,13 @@
         <v>47</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>329</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9737,7 +9733,7 @@
         <v>38</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>39</v>
@@ -9760,7 +9756,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9783,13 +9779,13 @@
         <v>47</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -9840,7 +9836,7 @@
         <v>38</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>39</v>
@@ -9863,7 +9859,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9886,13 +9882,13 @@
         <v>47</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -9943,7 +9939,7 @@
         <v>38</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>39</v>
@@ -9966,7 +9962,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9992,10 +9988,10 @@
         <v>138</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -10046,7 +10042,7 @@
         <v>38</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>39</v>
@@ -10058,7 +10054,7 @@
         <v>38</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>38</v>
@@ -10069,7 +10065,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10092,13 +10088,13 @@
         <v>38</v>
       </c>
       <c r="J85" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K85" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K85" t="s" s="2">
+      <c r="L85" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -10149,30 +10145,30 @@
         <v>38</v>
       </c>
       <c r="AE85" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK85" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10201,7 +10197,7 @@
         <v>92</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M86" t="s" s="2">
         <v>94</v>
@@ -10254,7 +10250,7 @@
         <v>38</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>39</v>
@@ -10272,16 +10268,16 @@
         <v>38</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -10303,10 +10299,10 @@
         <v>91</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M87" t="s" s="2">
         <v>94</v>
@@ -10361,7 +10357,7 @@
         <v>38</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>39</v>
@@ -10384,7 +10380,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10407,13 +10403,13 @@
         <v>47</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L88" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10443,11 +10439,11 @@
         <v>110</v>
       </c>
       <c r="X88" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="Y88" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="Y88" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="Z88" t="s" s="2">
         <v>38</v>
       </c>
@@ -10464,7 +10460,7 @@
         <v>38</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>39</v>
@@ -10487,7 +10483,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10510,13 +10506,13 @@
         <v>47</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -10567,7 +10563,7 @@
         <v>38</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>39</v>
@@ -10590,7 +10586,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -10616,10 +10612,10 @@
         <v>114</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L90" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>353</v>
       </c>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -10670,7 +10666,7 @@
         <v>38</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>39</v>
@@ -10693,7 +10689,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10719,10 +10715,10 @@
         <v>138</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -10773,7 +10769,7 @@
         <v>38</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>39</v>
@@ -10785,7 +10781,7 @@
         <v>38</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>38</v>
@@ -10796,7 +10792,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -10819,13 +10815,13 @@
         <v>38</v>
       </c>
       <c r="J92" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K92" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K92" t="s" s="2">
+      <c r="L92" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -10876,30 +10872,30 @@
         <v>38</v>
       </c>
       <c r="AE92" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK92" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF92" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG92" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ92" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK92" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -10928,7 +10924,7 @@
         <v>92</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M93" t="s" s="2">
         <v>94</v>
@@ -10981,7 +10977,7 @@
         <v>38</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>39</v>
@@ -10999,16 +10995,16 @@
         <v>38</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -11030,10 +11026,10 @@
         <v>91</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M94" t="s" s="2">
         <v>94</v>
@@ -11088,7 +11084,7 @@
         <v>38</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>39</v>
@@ -11111,7 +11107,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11137,10 +11133,10 @@
         <v>114</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="L95" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11191,7 +11187,7 @@
         <v>38</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>39</v>
@@ -11214,7 +11210,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11240,10 +11236,10 @@
         <v>114</v>
       </c>
       <c r="K96" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L96" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L96" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -11294,7 +11290,7 @@
         <v>38</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>39</v>
@@ -11317,7 +11313,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11343,10 +11339,10 @@
         <v>138</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="L97" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -11397,7 +11393,7 @@
         <v>38</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>39</v>
@@ -11409,7 +11405,7 @@
         <v>38</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>38</v>
@@ -11420,7 +11416,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -11443,13 +11439,13 @@
         <v>38</v>
       </c>
       <c r="J98" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K98" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K98" t="s" s="2">
+      <c r="L98" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>145</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -11500,30 +11496,30 @@
         <v>38</v>
       </c>
       <c r="AE98" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AK98" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AF98" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG98" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ98" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AK98" t="s" s="2">
-        <v>147</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -11552,7 +11548,7 @@
         <v>92</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M99" t="s" s="2">
         <v>94</v>
@@ -11605,7 +11601,7 @@
         <v>38</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>39</v>
@@ -11623,16 +11619,16 @@
         <v>38</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -11654,10 +11650,10 @@
         <v>91</v>
       </c>
       <c r="K100" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L100" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>94</v>
@@ -11712,7 +11708,7 @@
         <v>38</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>39</v>
@@ -11735,7 +11731,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -11761,10 +11757,10 @@
         <v>114</v>
       </c>
       <c r="K101" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="L101" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -11815,7 +11811,7 @@
         <v>38</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>39</v>
@@ -11838,7 +11834,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -11864,10 +11860,10 @@
         <v>114</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -11918,7 +11914,7 @@
         <v>38</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>39</v>
